--- a/Semantic_expander_time_stats.xlsx
+++ b/Semantic_expander_time_stats.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfree\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden_Freedman\PennTURBO\Drivetrain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Patient Cohort Size</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Measurements</t>
   </si>
   <si>
-    <t>1 minute 44 seconds</t>
-  </si>
-  <si>
     <t>30 minutes 39 seconds</t>
   </si>
   <si>
@@ -68,13 +65,70 @@
     <t>45 hours 37 minutes 23 seconds</t>
   </si>
   <si>
-    <t>12 minutes 23 seconds</t>
+    <t>Homo Sapiens Expansion</t>
+  </si>
+  <si>
+    <t>266 seconds</t>
+  </si>
+  <si>
+    <t>Encounter and Measurements Expansion</t>
+  </si>
+  <si>
+    <t>Diagnoses Expansion</t>
+  </si>
+  <si>
+    <t>Prescriptions Expansion</t>
+  </si>
+  <si>
+    <t>5147 seconds</t>
+  </si>
+  <si>
+    <t>617 seconds</t>
+  </si>
+  <si>
+    <t>4387 seconds</t>
+  </si>
+  <si>
+    <t>2 hours 53 minutes 59 seconds</t>
+  </si>
+  <si>
+    <t>1 minute 23 seconds</t>
+  </si>
+  <si>
+    <t>3 seconds</t>
+  </si>
+  <si>
+    <t>47 seconds</t>
+  </si>
+  <si>
+    <t>6 seconds</t>
+  </si>
+  <si>
+    <t>21 seconds</t>
+  </si>
+  <si>
+    <t>29 seconds</t>
+  </si>
+  <si>
+    <t>13 minutes 1 second</t>
+  </si>
+  <si>
+    <t>444 seconds</t>
+  </si>
+  <si>
+    <t>62 seconds</t>
+  </si>
+  <si>
+    <t>238 seconds</t>
+  </si>
+  <si>
+    <t>3779 seconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,8 +160,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -390,69 +446,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1000</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>917369</v>
       </c>
       <c r="E2" s="1">
-        <v>3593791</v>
+        <v>3593773</v>
       </c>
       <c r="F2" s="1">
         <v>36184</v>
@@ -466,16 +538,28 @@
       <c r="I2" s="1">
         <v>51163</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>10000</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>9380085</v>
@@ -495,17 +579,35 @@
       <c r="I3" s="1">
         <v>507875</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>100000</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>89808702</v>
       </c>
+      <c r="E4" s="1">
+        <v>350150937</v>
+      </c>
       <c r="F4" s="1">
         <v>3587004</v>
       </c>
@@ -518,17 +620,31 @@
       <c r="I4" s="1">
         <v>4917038</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1000000</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1">
         <v>894416550</v>
       </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="1">
         <v>35786086</v>
       </c>
@@ -541,8 +657,15 @@
       <c r="I5" s="1">
         <v>48793260</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Semantic_expander_time_stats.xlsx
+++ b/Semantic_expander_time_stats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Patient Cohort Size</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>3779 seconds</t>
+  </si>
+  <si>
+    <t>99201 seconds</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +663,9 @@
       <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>

--- a/Semantic_expander_time_stats.xlsx
+++ b/Semantic_expander_time_stats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Patient Cohort Size</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>99201 seconds</t>
+  </si>
+  <si>
+    <t>14479 seconds</t>
   </si>
 </sst>
 </file>
@@ -451,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,7 +669,9 @@
       <c r="K5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="M5" s="2"/>
     </row>
   </sheetData>

--- a/Semantic_expander_time_stats.xlsx
+++ b/Semantic_expander_time_stats.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden_Freedman\PennTURBO\Drivetrain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hfree\Drivetrain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Patient Cohort Size</t>
   </si>
@@ -129,12 +129,84 @@
   </si>
   <si>
     <t>14479 seconds</t>
+  </si>
+  <si>
+    <t>34,035 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 hours 15 minutes 25 seconds  </t>
+  </si>
+  <si>
+    <t>Carnival Export Time As Log</t>
+  </si>
+  <si>
+    <t>Drivetrain Instantiation Time As Log</t>
+  </si>
+  <si>
+    <t>Homo Sapiens Expansion As Log</t>
+  </si>
+  <si>
+    <t>".477"</t>
+  </si>
+  <si>
+    <t>"1.46"</t>
+  </si>
+  <si>
+    <t>"2.42"</t>
+  </si>
+  <si>
+    <t>HCM Expansion as Log</t>
+  </si>
+  <si>
+    <t>"1.67"</t>
+  </si>
+  <si>
+    <t>"2.65"</t>
+  </si>
+  <si>
+    <t>"3.71"</t>
+  </si>
+  <si>
+    <t>"5.00"</t>
+  </si>
+  <si>
+    <t>Diagnosis Expansion as Log</t>
+  </si>
+  <si>
+    <t>".78"</t>
+  </si>
+  <si>
+    <t>"1.79"</t>
+  </si>
+  <si>
+    <t>"2.79"</t>
+  </si>
+  <si>
+    <t>"4.16"</t>
+  </si>
+  <si>
+    <t>Prescription Expansion as Log</t>
+  </si>
+  <si>
+    <t>"1.32"</t>
+  </si>
+  <si>
+    <t>"2.38"</t>
+  </si>
+  <si>
+    <t>"3.64"</t>
+  </si>
+  <si>
+    <t>"4.53"</t>
+  </si>
+  <si>
+    <t>"3.58"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,227 +524,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25" customWidth="1"/>
-    <col min="11" max="11" width="39.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" customWidth="1"/>
+    <col min="16" max="16" width="20.5546875" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" customWidth="1"/>
+    <col min="18" max="18" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1000</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2">
+        <v>2.39</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2">
+        <v>1.92</v>
+      </c>
+      <c r="F2" s="1">
         <v>917369</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>3593773</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>36184</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>6727</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>46252</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>51163</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="S2" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10000</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3">
+        <v>3.26</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3">
+        <v>2.89</v>
+      </c>
+      <c r="F3" s="1">
         <v>9380085</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>36609719</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>372297</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>69484</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>482093</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>507875</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="S3" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>100000</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F4" s="1">
         <v>89808702</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>350150937</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H4" s="1">
         <v>3587004</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>675998</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>4516160</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>4917038</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="S4" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000000</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1">
+      <c r="C5">
+        <v>5.22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>5.18</v>
+      </c>
+      <c r="F5" s="1">
         <v>894416550</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
+        <v>3487368869</v>
+      </c>
+      <c r="H5" s="1">
         <v>35786086</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>6703298</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>45073629</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>48793260</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="O5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Semantic_expander_time_stats.xlsx
+++ b/Semantic_expander_time_stats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Patient Cohort Size</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Carnival Export Time As Log</t>
   </si>
   <si>
-    <t>Drivetrain Instantiation Time As Log</t>
-  </si>
-  <si>
     <t>Homo Sapiens Expansion As Log</t>
   </si>
   <si>
@@ -201,6 +198,45 @@
   </si>
   <si>
     <t>"3.58"</t>
+  </si>
+  <si>
+    <t>Drivetrain Instantiation (multiple threads)</t>
+  </si>
+  <si>
+    <t>Drivetrain Instantiation Time As Log (free edition)</t>
+  </si>
+  <si>
+    <t>1 minute 22 seconds</t>
+  </si>
+  <si>
+    <t>10 minutes 26 seconds</t>
+  </si>
+  <si>
+    <t>HSE (mt)</t>
+  </si>
+  <si>
+    <t>ENC (mt)</t>
+  </si>
+  <si>
+    <t>Diag (mt)</t>
+  </si>
+  <si>
+    <t>Pres (mt)</t>
+  </si>
+  <si>
+    <t>255 seconds</t>
+  </si>
+  <si>
+    <t>3004 seconds</t>
+  </si>
+  <si>
+    <t>542 seconds</t>
+  </si>
+  <si>
+    <t>1757 seconds</t>
+  </si>
+  <si>
+    <t>1 hour 32 minutes 45 seconds</t>
   </si>
 </sst>
 </file>
@@ -524,35 +560,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" customWidth="1"/>
-    <col min="13" max="13" width="20.109375" customWidth="1"/>
-    <col min="14" max="14" width="26.109375" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" customWidth="1"/>
-    <col min="16" max="16" width="20.5546875" customWidth="1"/>
-    <col min="17" max="17" width="15.21875" customWidth="1"/>
-    <col min="18" max="18" width="25.44140625" customWidth="1"/>
+    <col min="3" max="4" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.109375" customWidth="1"/>
+    <col min="15" max="15" width="26.109375" customWidth="1"/>
+    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="17" max="17" width="20.5546875" customWidth="1"/>
+    <col min="18" max="18" width="15.21875" customWidth="1"/>
+    <col min="19" max="19" width="25.44140625" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,52 +603,67 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="P1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="R1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>53</v>
+      <c r="T1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1000</v>
       </c>
@@ -624,53 +676,56 @@
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2">
         <v>1.92</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>917369</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>3593773</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>36184</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>6727</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>46252</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>51163</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="P2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="R2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>54</v>
+      <c r="T2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10000</v>
       </c>
@@ -683,53 +738,56 @@
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3">
         <v>2.89</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>9380085</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>36609719</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>372297</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>69484</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>482093</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>507875</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>55</v>
+      <c r="T3" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>100000</v>
       </c>
@@ -742,53 +800,68 @@
       <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>89808702</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>350150937</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>3587004</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>675998</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>4516160</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>4917038</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="N4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="P4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="R4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>56</v>
+      <c r="T4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1000000</v>
       </c>
@@ -801,50 +874,50 @@
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5.18</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>894416550</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>3487368869</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>35786086</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>6703298</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>45073629</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>48793260</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="N5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="P5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="R5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>57</v>
+      <c r="T5" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Semantic_expander_time_stats.xlsx
+++ b/Semantic_expander_time_stats.xlsx
@@ -563,14 +563,15 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="4" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" customWidth="1"/>
@@ -586,7 +587,10 @@
     <col min="17" max="17" width="20.5546875" customWidth="1"/>
     <col min="18" max="18" width="15.21875" customWidth="1"/>
     <col min="19" max="19" width="25.44140625" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="21" max="21" width="24.77734375" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" customWidth="1"/>
+    <col min="23" max="23" width="20.109375" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">

--- a/Semantic_expander_time_stats.xlsx
+++ b/Semantic_expander_time_stats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Patient Cohort Size</t>
   </si>
@@ -62,9 +62,6 @@
     <t>3 hours 49 minutes 4 seconds</t>
   </si>
   <si>
-    <t>45 hours 37 minutes 23 seconds</t>
-  </si>
-  <si>
     <t>Homo Sapiens Expansion</t>
   </si>
   <si>
@@ -237,6 +234,12 @@
   </si>
   <si>
     <t>1 hour 32 minutes 45 seconds</t>
+  </si>
+  <si>
+    <t>45 hours 29 minutes 28 seconds</t>
+  </si>
+  <si>
+    <t>2937 seconds</t>
   </si>
 </sst>
 </file>
@@ -562,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,16 +604,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -631,40 +634,40 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -678,10 +681,10 @@
         <v>2.39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2">
         <v>1.92</v>
@@ -705,28 +708,28 @@
         <v>51163</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -740,10 +743,10 @@
         <v>3.26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>2.89</v>
@@ -767,28 +770,28 @@
         <v>507875</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="T3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -802,10 +805,10 @@
         <v>4.1399999999999997</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>4.0199999999999996</v>
@@ -829,40 +832,40 @@
         <v>4917038</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="T4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -870,19 +873,19 @@
         <v>1000000</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>5.22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>5.18</v>
       </c>
       <c r="G5" s="1">
-        <v>894416550</v>
+        <v>903373439</v>
       </c>
       <c r="H5" s="1">
         <v>3487368869</v>
@@ -900,28 +903,31 @@
         <v>48793260</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="T5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Semantic_expander_time_stats.xlsx
+++ b/Semantic_expander_time_stats.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Patient Cohort Size</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>2937 seconds</t>
+  </si>
+  <si>
+    <t>20 hours 33 minutes</t>
   </si>
 </sst>
 </file>
@@ -565,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,6 +884,9 @@
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
       <c r="F5">
         <v>5.18</v>
       </c>
@@ -888,7 +894,7 @@
         <v>903373439</v>
       </c>
       <c r="H5" s="1">
-        <v>3487368869</v>
+        <v>3522298786</v>
       </c>
       <c r="I5" s="1">
         <v>35786086</v>

--- a/Semantic_expander_time_stats.xlsx
+++ b/Semantic_expander_time_stats.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
   <si>
     <t>Patient Cohort Size</t>
   </si>
@@ -243,6 +246,45 @@
   </si>
   <si>
     <t>20 hours 33 minutes</t>
+  </si>
+  <si>
+    <t>37724 seconds</t>
+  </si>
+  <si>
+    <t>8734 seconds</t>
+  </si>
+  <si>
+    <t>24573 seconds</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>Patient Instantiation Time</t>
+  </si>
+  <si>
+    <t>Encounter Instantiation Time</t>
+  </si>
+  <si>
+    <t>Diagnosis Instantiation Time</t>
+  </si>
+  <si>
+    <t>Medication Instantiation Time</t>
+  </si>
+  <si>
+    <t>Carnival Build Time</t>
+  </si>
+  <si>
+    <t>Semantic Engine Instantiation Time</t>
+  </si>
+  <si>
+    <t>Cohort Size</t>
+  </si>
+  <si>
+    <t>Semantic Engine Instantiation Time (parallel)</t>
+  </si>
+  <si>
+    <t>Semantic Engine Instantiation Time (series)</t>
   </si>
 </sst>
 </file>
@@ -301,6 +343,3342 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Semantic Engine Runtime with and without Multiple Threads enabled</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Semantic Engine Instantiation Time (series)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$9:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2535.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD42-4D54-9B41-CBAB61EC35F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Semantic Engine Instantiation Time (parallel)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$9:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD42-4D54-9B41-CBAB61EC35F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="455420720"/>
+        <c:axId val="455421048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="455420720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455421048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="455421048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455420720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Carnival Build Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CA3-4E26-9235-D02E5DC8638E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Semantic Engine Instantiation Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0910000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4CA3-4E26-9235-D02E5DC8638E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="458976624"/>
+        <c:axId val="458982528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="458976624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458982528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="458982528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458976624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Patient Instantiation Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE34-436B-B6A0-6F63218D8EC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encounter Instantiation Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE34-436B-B6A0-6F63218D8EC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diagnosis Instantiation Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9409999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BE34-436B-B6A0-6F63218D8EC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medication Instantiation Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3899999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BE34-436B-B6A0-6F63218D8EC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="314796024"/>
+        <c:axId val="314795040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="314796024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314795040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="314795040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314796024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2529840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -568,8 +3946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,6 +4112,18 @@
       <c r="T2" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="U2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -796,6 +4186,18 @@
       <c r="T3" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="U3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -935,9 +4337,384 @@
       <c r="U5" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="V5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="C4">
+        <v>1.018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.2410000000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.9670000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3.4039999999999999</v>
+      </c>
+      <c r="C6">
+        <v>3.0910000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>1.38</v>
+      </c>
+      <c r="C10">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11">
+        <v>13.02</v>
+      </c>
+      <c r="C11">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>100000</v>
+      </c>
+      <c r="B12">
+        <v>173.98</v>
+      </c>
+      <c r="C12">
+        <v>92.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1000000</v>
+      </c>
+      <c r="B13">
+        <v>2535.42</v>
+      </c>
+      <c r="C13">
+        <v>1233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.49</v>
+      </c>
+      <c r="C4">
+        <v>1.018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.36</v>
+      </c>
+      <c r="C5">
+        <v>1.9179999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3.44</v>
+      </c>
+      <c r="C6">
+        <v>3.0910000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C3">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="E3">
+        <v>1.3220000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.462</v>
+      </c>
+      <c r="C4">
+        <v>2.6469999999999998</v>
+      </c>
+      <c r="D4">
+        <v>1.792</v>
+      </c>
+      <c r="E4">
+        <v>2.3769999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.407</v>
+      </c>
+      <c r="C5">
+        <v>3.4780000000000002</v>
+      </c>
+      <c r="D5">
+        <v>2.734</v>
+      </c>
+      <c r="E5">
+        <v>3.2450000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3.468</v>
+      </c>
+      <c r="C6">
+        <v>4.577</v>
+      </c>
+      <c r="D6">
+        <v>3.9409999999999998</v>
+      </c>
+      <c r="E6">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Semantic_expander_time_stats.xlsx
+++ b/Semantic_expander_time_stats.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8916" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>Patient Cohort Size</t>
   </si>
@@ -1908,6 +1909,778 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Semantic Engine Instantiation Time by Data Segment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Patient Instantiation Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AAB4-40D4-93DA-E627C5631CDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encounter Instantiation Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AAB4-40D4-93DA-E627C5631CDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diagnosis Instantiation Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AAB4-40D4-93DA-E627C5631CDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medication Instantiation Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AAB4-40D4-93DA-E627C5631CDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="482921888"/>
+        <c:axId val="482922544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="482921888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Patients</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482922544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="482922544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482921888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2028,6 +2801,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3061,6 +3874,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3664,6 +4993,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1744980</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3946,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4357,7 +5721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -4598,7 +5962,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4717,4 +6081,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1">
+        <v>444</v>
+      </c>
+      <c r="D4" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>100000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>255</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3004</v>
+      </c>
+      <c r="D5" s="2">
+        <v>542</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1000000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2937</v>
+      </c>
+      <c r="C6" s="2">
+        <v>37724</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8734</v>
+      </c>
+      <c r="E6" s="2">
+        <v>24573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>